--- a/ejemplos/modelos_arbol_individual-masas_puras/Psylvestris_SCentral_SIberico_IBERO_IFN_3_parcelas.xlsx
+++ b/ejemplos/modelos_arbol_individual-masas_puras/Psylvestris_SCentral_SIberico_IBERO_IFN_3_parcelas.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,65 +371,70 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_especie_principal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -447,39 +452,42 @@
         </is>
       </c>
       <c r="C2">
-        <v>21</v>
-      </c>
-      <c r="E2">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="F2">
         <v>50</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>417.3396285520811</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>9.966420138888889</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>9.442097064144155</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.004294269415392</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>41.33546967494592</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>26.97723629032325</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>30.61930452784553</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>29.5217390061129</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>28.11040344801624</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>26.48676695054274</v>
       </c>
     </row>
@@ -495,39 +503,42 @@
         </is>
       </c>
       <c r="C3">
-        <v>21</v>
-      </c>
-      <c r="E3">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="F3">
         <v>28</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>965.5399880908317</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>14.06431805555555</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>8.760406950327944</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.2989296288757042</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>40.76266587807324</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>26.63831630785016</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>26.18262650667493</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>24.94236320229702</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>23.80165258996486</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>22.51933323698888</v>
       </c>
     </row>
@@ -543,39 +554,42 @@
         </is>
       </c>
       <c r="C4">
-        <v>21</v>
-      </c>
-      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="F4">
         <v>25</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>332.4569922364036</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>11.46883888888889</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10.06588424210452</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-5.267597909778438</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>40.20452052781507</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>25.7400316203605</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>33.40961091952046</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>31.21234382516413</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>30.23588290416241</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>28.45684401169632</v>
       </c>
     </row>
